--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -59,6 +59,81 @@
     <author>stas</author>
   </authors>
   <commentList>
+    <comment ref="G10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Осталось бросить провод
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Самый минимум
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Самый минимум, ничего не работает
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F22" authorId="0">
       <text>
         <r>
@@ -80,6 +155,56 @@
           </rPr>
           <t xml:space="preserve">
 Нет DHCP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Самый минимум, ничего не работает
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
 </t>
         </r>
       </text>
@@ -294,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="183">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -3141,8 +3266,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3223,8 +3348,8 @@
       <c r="F8" s="5">
         <v>43047</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
+      <c r="G8" s="5">
+        <v>43054</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -3294,7 +3419,7 @@
         <v>68</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
@@ -3329,7 +3454,7 @@
         <v>68</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>5</v>
@@ -3467,7 +3592,7 @@
         <v>68</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>5</v>
@@ -3502,7 +3627,7 @@
         <v>68</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>5</v>
@@ -3572,7 +3697,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -3671,13 +3796,13 @@
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>5</v>
@@ -3811,7 +3936,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>5</v>
+        <v>181</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
@@ -3887,7 +4012,7 @@
         <v>68</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>5</v>
@@ -3919,10 +4044,10 @@
         <v>68</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>5</v>
@@ -4133,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4901,10 +5026,10 @@
         <v>19</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -180,6 +180,31 @@
           </rPr>
           <t xml:space="preserve">
 Самый минимум, ничего не работает
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP
 </t>
         </r>
       </text>
@@ -3267,7 +3292,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,7 +3967,7 @@
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -3291,8 +3291,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,7 +3897,7 @@
         <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -3291,7 +3291,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -4283,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4876,10 +4876,10 @@
         <v>19</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>5</v>
@@ -5086,10 +5086,10 @@
         <v>19</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,31 @@
     <author>stas</author>
   </authors>
   <commentList>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP
+Нет write mem</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0">
       <text>
         <r>
@@ -46,6 +71,55 @@
           <t xml:space="preserve">
 Хозяйский IP
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+write mem забыл
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP</t>
         </r>
       </text>
     </comment>
@@ -444,7 +518,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="183">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -2058,15 +2132,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="25" customWidth="1"/>
+    <col min="5" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -2202,8 +2276,8 @@
       <c r="F8" s="5">
         <v>43049</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
+      <c r="G8" s="5">
+        <v>43056</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>10</v>
@@ -2238,7 +2312,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
@@ -2378,7 +2452,7 @@
         <v>68</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>5</v>
@@ -2553,7 +2627,7 @@
         <v>68</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -2623,7 +2697,7 @@
         <v>68</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>5</v>
@@ -2693,7 +2767,7 @@
         <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>5</v>
@@ -2763,7 +2837,7 @@
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>5</v>
@@ -2938,7 +3012,7 @@
         <v>68</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>5</v>
@@ -3008,7 +3082,7 @@
         <v>68</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -3043,7 +3117,7 @@
         <v>68</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>5</v>
@@ -3078,7 +3152,7 @@
         <v>68</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>5</v>
@@ -3183,7 +3257,7 @@
         <v>68</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>5</v>
@@ -3218,7 +3292,7 @@
         <v>68</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>5</v>
@@ -3291,7 +3365,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -4283,7 +4357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -2132,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4357,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4532,7 +4532,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -391,6 +391,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F19" authorId="0">
       <text>
         <r>
@@ -464,6 +489,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="G21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -513,12 +553,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="F31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не включён DHCP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP на коммутаторе
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="182">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -617,9 +707,6 @@
   </si>
   <si>
     <t>Статус</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №3 max=20</t>
   </si>
   <si>
     <t>Лабораторная работа №4 max=20</t>
@@ -2241,7 +2328,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2280,16 +2367,16 @@
         <v>43056</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,22 +2384,22 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
@@ -2332,13 +2419,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -2367,13 +2454,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -2402,13 +2489,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -2437,22 +2524,22 @@
         <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>5</v>
@@ -2472,13 +2559,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -2507,13 +2594,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -2542,13 +2629,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -2577,13 +2664,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -2612,22 +2699,22 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -2647,13 +2734,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -2682,22 +2769,22 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>5</v>
@@ -2717,13 +2804,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -2752,22 +2839,22 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>5</v>
@@ -2787,19 +2874,19 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -2822,22 +2909,22 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>5</v>
@@ -2857,13 +2944,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -2892,13 +2979,13 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -2927,13 +3014,13 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -2962,13 +3049,13 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -2997,22 +3084,22 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>5</v>
@@ -3032,13 +3119,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -3067,22 +3154,22 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -3102,22 +3189,22 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>5</v>
@@ -3137,22 +3224,22 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>5</v>
@@ -3172,13 +3259,13 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -3207,13 +3294,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -3242,22 +3329,22 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>5</v>
@@ -3277,22 +3364,22 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>5</v>
@@ -3312,13 +3399,13 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -3365,13 +3452,15 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="25" customWidth="1"/>
+    <col min="2" max="4" width="25" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3430,7 +3519,7 @@
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -3450,17 +3539,17 @@
       <c r="G8" s="5">
         <v>43054</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5">
+        <v>43061</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,13 +3557,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -3503,25 +3592,25 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>5</v>
@@ -3538,25 +3627,25 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>5</v>
@@ -3573,13 +3662,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -3606,13 +3695,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -3624,7 +3713,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
@@ -3641,16 +3730,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -3659,7 +3748,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>5</v>
@@ -3676,25 +3765,25 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
@@ -3711,25 +3800,25 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>5</v>
@@ -3746,13 +3835,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -3781,22 +3870,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -3816,13 +3905,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -3851,16 +3940,16 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
@@ -3869,7 +3958,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -3886,25 +3975,25 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -3921,19 +4010,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -3956,22 +4045,22 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>5</v>
@@ -3991,13 +4080,13 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
@@ -4026,22 +4115,22 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>5</v>
@@ -4061,13 +4150,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -4096,25 +4185,25 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>5</v>
@@ -4131,25 +4220,25 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>5</v>
@@ -4166,13 +4255,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -4201,13 +4290,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -4236,13 +4325,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -4271,19 +4360,19 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -4306,13 +4395,13 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
@@ -4357,13 +4446,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="11" width="25" customWidth="1"/>
+    <col min="2" max="4" width="25" customWidth="1"/>
+    <col min="5" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -4464,7 +4555,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4499,20 +4590,20 @@
       <c r="F8" s="5">
         <v>43053</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5">
+        <v>43060</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4520,19 +4611,19 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
@@ -4555,22 +4646,22 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
@@ -4590,23 +4681,23 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>"+?"</f>
         <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>5</v>
@@ -4626,13 +4717,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -4661,16 +4752,16 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -4696,22 +4787,22 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>5</v>
@@ -4731,22 +4822,22 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>5</v>
@@ -4766,13 +4857,13 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -4781,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>5</v>
@@ -4801,13 +4892,13 @@
         <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -4836,13 +4927,13 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -4871,22 +4962,22 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>5</v>
@@ -4906,22 +4997,22 @@
         <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>5</v>
@@ -4941,22 +5032,22 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>5</v>
@@ -4976,22 +5067,22 @@
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>5</v>
@@ -5011,22 +5102,22 @@
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>5</v>
@@ -5046,22 +5137,22 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>5</v>
@@ -5081,13 +5172,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -5116,22 +5207,22 @@
         <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>5</v>
@@ -5151,26 +5242,24 @@
         <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H27" s="4"/>
       <c r="I27" s="4" t="s">
         <v>5</v>
       </c>
@@ -5186,19 +5275,19 @@
         <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -5221,22 +5310,22 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>5</v>
@@ -5256,13 +5345,13 @@
         <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -5289,22 +5378,22 @@
         <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -5324,16 +5413,16 @@
         <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>5</v>
@@ -5359,13 +5448,13 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -318,6 +318,31 @@
     <author>stas</author>
   </authors>
   <commentList>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Один IP - чужой
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F10" authorId="0">
       <text>
         <r>
@@ -3452,8 +3477,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,7 +4158,7 @@
         <v>67</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>5</v>
@@ -4446,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4626,7 +4651,7 @@
         <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -229,6 +229,31 @@
           </rPr>
           <t xml:space="preserve">
 Нет DHCP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
 </t>
         </r>
       </text>
@@ -3477,8 +3502,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,7 +4113,7 @@
         <v>67</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>5</v>
@@ -4471,7 +4496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -74,6 +74,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Нужны разные IP в разных подсетях
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G20" authorId="0">
       <text>
         <r>
@@ -99,6 +124,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="H24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не включил DHCP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G29" authorId="0">
       <text>
         <r>
@@ -120,6 +169,31 @@
           </rPr>
           <t xml:space="preserve">
 Хозяйский IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IP-адреса не назначены
+</t>
         </r>
       </text>
     </comment>
@@ -658,7 +732,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="182">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -2269,15 +2343,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="25" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -2416,8 +2490,8 @@
       <c r="G8" s="5">
         <v>43056</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
+      <c r="H8" s="5">
+        <v>43063</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>10</v>
@@ -2452,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>5</v>
@@ -2767,7 +2841,7 @@
         <v>67</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -2837,7 +2911,7 @@
         <v>67</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -2907,7 +2981,7 @@
         <v>67</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -2977,7 +3051,7 @@
         <v>67</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
@@ -3152,7 +3226,7 @@
         <v>67</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>5</v>
+        <v>180</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>5</v>
@@ -3222,7 +3296,7 @@
         <v>67</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>5</v>
@@ -3257,7 +3331,7 @@
         <v>67</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>5</v>
@@ -3292,7 +3366,7 @@
         <v>67</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>5</v>
@@ -3397,7 +3471,7 @@
         <v>67</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>5</v>
@@ -3432,7 +3506,7 @@
         <v>67</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>5</v>
@@ -3502,7 +3576,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -2343,7 +2343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -3576,8 +3576,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4076,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -124,6 +124,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H24" authorId="0">
       <text>
         <r>
@@ -232,6 +257,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="I10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Срисовал у Белоусова?
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IP неуникальны</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G15" authorId="0">
       <text>
         <r>
@@ -727,12 +801,62 @@
         </r>
       </text>
     </comment>
+    <comment ref="F32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DHCP не включён
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Мелкие ошибки
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="181">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -831,9 +955,6 @@
   </si>
   <si>
     <t>Статус</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №4 max=20</t>
   </si>
   <si>
     <t>Лабораторная работа №5 max=20</t>
@@ -2343,8 +2464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,7 +2573,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2494,13 +2615,13 @@
         <v>43063</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2508,25 +2629,25 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>5</v>
@@ -2543,13 +2664,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -2578,13 +2699,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -2613,13 +2734,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -2648,22 +2769,22 @@
         <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>5</v>
@@ -2683,13 +2804,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -2718,13 +2839,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -2753,13 +2874,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -2788,13 +2909,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -2823,25 +2944,25 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>5</v>
@@ -2858,13 +2979,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -2893,25 +3014,25 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -2928,13 +3049,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -2963,25 +3084,25 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -2998,19 +3119,19 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -3033,25 +3154,25 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
@@ -3068,13 +3189,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -3103,13 +3224,13 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -3138,13 +3259,13 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -3173,13 +3294,13 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -3208,25 +3329,25 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>5</v>
@@ -3243,13 +3364,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -3278,25 +3399,25 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>5</v>
@@ -3313,25 +3434,25 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>5</v>
@@ -3348,25 +3469,25 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>5</v>
@@ -3383,13 +3504,13 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -3418,13 +3539,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -3453,25 +3574,25 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>5</v>
@@ -3488,25 +3609,25 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>5</v>
@@ -3523,13 +3644,13 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -3576,15 +3697,15 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="25" customWidth="1"/>
+    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3643,7 +3764,7 @@
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -3666,14 +3787,14 @@
       <c r="H8" s="5">
         <v>43061</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5">
+        <v>43068</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3681,13 +3802,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -3716,28 +3837,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>5</v>
@@ -3751,28 +3872,28 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>5</v>
@@ -3786,13 +3907,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -3819,13 +3940,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -3837,7 +3958,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
@@ -3854,16 +3975,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -3872,10 +3993,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
@@ -3889,28 +4010,28 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>5</v>
@@ -3924,28 +4045,28 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>5</v>
@@ -3959,13 +4080,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -3994,22 +4115,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -4029,13 +4150,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -4064,28 +4185,28 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>5</v>
@@ -4099,25 +4220,25 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -4134,19 +4255,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -4169,25 +4290,25 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>5</v>
@@ -4204,13 +4325,13 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
@@ -4239,25 +4360,25 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>5</v>
@@ -4274,13 +4395,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -4309,25 +4430,25 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>5</v>
@@ -4344,28 +4465,28 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>5</v>
@@ -4379,13 +4500,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -4414,13 +4535,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -4449,13 +4570,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -4484,19 +4605,19 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -4519,13 +4640,13 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
@@ -4570,15 +4691,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="25" customWidth="1"/>
+    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -4679,7 +4800,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4717,17 +4838,17 @@
       <c r="G8" s="5">
         <v>43060</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5">
+        <v>43067</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4735,22 +4856,22 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
@@ -4770,22 +4891,22 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
@@ -4805,26 +4926,26 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>"+?"</f>
         <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>5</v>
@@ -4841,13 +4962,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -4876,16 +4997,16 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -4894,7 +5015,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
@@ -4911,25 +5032,25 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>5</v>
@@ -4946,25 +5067,25 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>5</v>
@@ -4981,13 +5102,13 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -4996,10 +5117,10 @@
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>5</v>
@@ -5016,13 +5137,13 @@
         <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -5051,13 +5172,13 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -5086,25 +5207,25 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>5</v>
@@ -5121,25 +5242,25 @@
         <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -5156,22 +5277,22 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>5</v>
@@ -5191,25 +5312,25 @@
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -5226,25 +5347,25 @@
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>5</v>
@@ -5261,25 +5382,25 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
@@ -5296,13 +5417,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -5331,25 +5452,25 @@
         <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>5</v>
@@ -5366,24 +5487,26 @@
         <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="I27" s="4" t="s">
         <v>5</v>
       </c>
@@ -5399,19 +5522,19 @@
         <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -5434,25 +5557,25 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>5</v>
@@ -5469,13 +5592,13 @@
         <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -5502,22 +5625,22 @@
         <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -5537,25 +5660,25 @@
         <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>5</v>
@@ -5572,13 +5695,13 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -3697,8 +3697,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4451,7 +4451,7 @@
         <v>66</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>5</v>
@@ -4691,7 +4691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -49,6 +49,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Недоразвёл VLAN
+Дубль IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0">
       <text>
         <r>
@@ -481,6 +506,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="J32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Соседний IP
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -589,6 +639,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Неверный шлюз в DHCP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G16" authorId="0">
       <text>
         <r>
@@ -702,6 +776,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="H21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не задан gw в DHCP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -847,6 +970,31 @@
           </rPr>
           <t xml:space="preserve">
 Мелкие ошибки
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I33" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Непонятно чей IP
 </t>
         </r>
       </text>
@@ -856,7 +1004,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="180">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -955,9 +1103,6 @@
   </si>
   <si>
     <t>Статус</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №5 max=20</t>
   </si>
   <si>
     <t>Общий балл без учета коэффициента 1.0</t>
@@ -2465,14 +2610,14 @@
   <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="25" customWidth="1"/>
+    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -2573,7 +2718,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2614,14 +2759,14 @@
       <c r="H8" s="5">
         <v>43063</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5">
+        <v>43099</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2629,28 +2774,28 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>5</v>
@@ -2664,13 +2809,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -2699,13 +2844,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -2734,13 +2879,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -2769,28 +2914,28 @@
         <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>5</v>
@@ -2804,13 +2949,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -2839,13 +2984,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -2874,13 +3019,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -2909,13 +3054,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -2944,28 +3089,28 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>5</v>
@@ -2979,13 +3124,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -3014,25 +3159,25 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
@@ -3049,13 +3194,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -3084,25 +3229,25 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
@@ -3119,19 +3264,19 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -3154,28 +3299,28 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>5</v>
@@ -3189,13 +3334,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -3224,13 +3369,13 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -3259,13 +3404,13 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -3294,13 +3439,13 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -3329,28 +3474,28 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>5</v>
@@ -3364,13 +3509,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -3399,25 +3544,25 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>5</v>
@@ -3434,28 +3579,28 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>5</v>
@@ -3469,28 +3614,28 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>5</v>
@@ -3504,13 +3649,13 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -3539,13 +3684,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -3574,28 +3719,28 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>5</v>
@@ -3609,28 +3754,28 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>5</v>
@@ -3644,13 +3789,13 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>178</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -3697,15 +3842,15 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25" customWidth="1"/>
+    <col min="5" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3764,7 +3909,7 @@
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -3790,11 +3935,11 @@
       <c r="I8" s="5">
         <v>43068</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5">
+        <v>43075</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3802,13 +3947,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -3837,28 +3982,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>5</v>
@@ -3872,28 +4017,28 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>5</v>
@@ -3907,13 +4052,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -3940,13 +4085,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -3958,13 +4103,13 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>5</v>
@@ -3975,16 +4120,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -3993,10 +4138,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
@@ -4010,31 +4155,31 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>5</v>
@@ -4045,31 +4190,31 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>5</v>
@@ -4080,13 +4225,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -4115,22 +4260,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -4150,13 +4295,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -4185,31 +4330,31 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
@@ -4220,25 +4365,25 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -4255,19 +4400,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>5</v>
@@ -4290,28 +4435,28 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>5</v>
@@ -4325,14 +4470,14 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
@@ -4345,9 +4490,7 @@
       <c r="H24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
         <v>5</v>
       </c>
@@ -4360,25 +4503,25 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>5</v>
@@ -4395,13 +4538,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -4430,31 +4573,31 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>5</v>
@@ -4465,31 +4608,31 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>5</v>
@@ -4500,13 +4643,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -4535,13 +4678,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -4570,13 +4713,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -4605,19 +4748,19 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -4629,7 +4772,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>5</v>
@@ -4640,13 +4783,13 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
@@ -4691,15 +4834,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="25" customWidth="1"/>
+    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -4800,7 +4943,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4841,14 +4984,14 @@
       <c r="H8" s="5">
         <v>43067</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5">
+        <v>43044</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4856,28 +4999,28 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>5</v>
@@ -4891,28 +5034,28 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>5</v>
@@ -4926,29 +5069,29 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>"+?"</f>
         <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>5</v>
@@ -4962,13 +5105,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -4997,16 +5140,16 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -5015,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
@@ -5032,28 +5175,28 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
@@ -5067,28 +5210,28 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>5</v>
@@ -5102,13 +5245,13 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -5117,13 +5260,13 @@
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>5</v>
@@ -5137,13 +5280,13 @@
         <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -5172,13 +5315,13 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -5207,28 +5350,28 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>5</v>
@@ -5242,28 +5385,28 @@
         <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>5</v>
@@ -5277,25 +5420,25 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>5</v>
@@ -5312,28 +5455,28 @@
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>5</v>
@@ -5347,28 +5490,28 @@
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>5</v>
@@ -5382,25 +5525,25 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
@@ -5417,13 +5560,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -5452,28 +5595,28 @@
         <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>5</v>
@@ -5487,28 +5630,28 @@
         <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>5</v>
@@ -5522,19 +5665,19 @@
         <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -5543,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>5</v>
@@ -5557,28 +5700,28 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>5</v>
@@ -5592,13 +5735,13 @@
         <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -5625,22 +5768,22 @@
         <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -5660,25 +5803,25 @@
         <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>5</v>
@@ -5695,16 +5838,16 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
@@ -5716,7 +5859,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="180">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -2609,15 +2609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25" customWidth="1"/>
+    <col min="5" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -2762,8 +2762,8 @@
       <c r="I8" s="5">
         <v>43099</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>9</v>
+      <c r="J8" s="5">
+        <v>43077</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>10</v>
@@ -2798,7 +2798,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>5</v>
@@ -2938,7 +2938,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>5</v>
@@ -3113,7 +3113,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>5</v>
@@ -3183,7 +3183,7 @@
         <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
@@ -3218,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>5</v>
@@ -3253,7 +3253,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>5</v>
@@ -3323,7 +3323,7 @@
         <v>65</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>5</v>
@@ -3357,9 +3357,7 @@
       <c r="I25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
         <v>5</v>
       </c>
@@ -3603,7 +3601,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>5</v>
@@ -3638,7 +3636,7 @@
         <v>65</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>5</v>
@@ -3743,7 +3741,7 @@
         <v>65</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>5</v>
@@ -3778,7 +3776,7 @@
         <v>65</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>5</v>
@@ -3842,7 +3840,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -378,6 +378,30 @@
           <t xml:space="preserve">
 Самый минимум, ничего не работает
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Вообще нет default gateway</t>
         </r>
       </text>
     </comment>
@@ -2609,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,8 +3864,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4384,7 +4408,7 @@
         <v>65</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -821,6 +821,30 @@
           </rPr>
           <t xml:space="preserve">
 Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Без Default Gateway</t>
         </r>
       </text>
     </comment>
@@ -2633,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,7 +2980,7 @@
         <v>65</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>178</v>
+        <v>65</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>65</v>
@@ -3864,7 +3888,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -4856,8 +4880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5460,10 +5484,10 @@
         <v>65</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -687,6 +687,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas
+Чужщй IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G16" authorId="0">
       <text>
         <r>
@@ -1052,7 +1067,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="186">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -1153,9 +1168,6 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Общий балл без учета коэффициента 1.0</t>
-  </si>
-  <si>
     <t>Общий балл с учетом коэффициента 1.0</t>
   </si>
   <si>
@@ -1704,6 +1716,27 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>OSPF</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Ports</t>
+  </si>
+  <si>
+    <t>Telnet</t>
   </si>
 </sst>
 </file>
@@ -2766,7 +2799,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2814,7 +2847,7 @@
         <v>43077</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,31 +2855,31 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>119</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>5</v>
@@ -2857,13 +2890,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -2892,13 +2925,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -2927,13 +2960,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -2962,31 +2995,31 @@
         <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>5</v>
@@ -2997,13 +3030,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -3032,13 +3065,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -3067,13 +3100,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -3102,13 +3135,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -3137,31 +3170,31 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>5</v>
@@ -3172,13 +3205,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -3207,31 +3240,31 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
@@ -3242,13 +3275,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>143</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -3266,7 +3299,7 @@
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>5</v>
@@ -3277,31 +3310,31 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>5</v>
@@ -3312,19 +3345,19 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -3347,31 +3380,31 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>5</v>
@@ -3382,13 +3415,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -3415,13 +3448,13 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -3450,13 +3483,13 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -3485,13 +3518,13 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -3520,28 +3553,28 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>159</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>5</v>
@@ -3555,13 +3588,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>161</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -3590,25 +3623,25 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>163</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>5</v>
@@ -3625,31 +3658,31 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>5</v>
@@ -3660,31 +3693,31 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>5</v>
@@ -3695,13 +3728,13 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -3730,13 +3763,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -3765,31 +3798,31 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>5</v>
@@ -3800,31 +3833,31 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>5</v>
@@ -3835,13 +3868,13 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>177</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -3888,15 +3921,14 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="5" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3952,10 +3984,32 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+    </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -3984,8 +4038,8 @@
       <c r="J8" s="5">
         <v>43075</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
+      <c r="K8" s="5">
+        <v>43082</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3993,13 +4047,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
@@ -4028,28 +4082,28 @@
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>5</v>
@@ -4063,28 +4117,28 @@
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>5</v>
@@ -4098,13 +4152,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -4131,13 +4185,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -4149,16 +4203,16 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4166,16 +4220,16 @@
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -4184,16 +4238,16 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4201,31 +4255,31 @@
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>5</v>
@@ -4236,34 +4290,34 @@
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,13 +4325,13 @@
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -4306,22 +4360,22 @@
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -4341,13 +4395,13 @@
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -4376,31 +4430,31 @@
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
@@ -4411,34 +4465,34 @@
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4446,31 +4500,31 @@
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>5</v>
@@ -4481,28 +4535,28 @@
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>5</v>
@@ -4516,13 +4570,13 @@
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
@@ -4549,25 +4603,25 @@
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>5</v>
@@ -4584,13 +4638,13 @@
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -4619,34 +4673,34 @@
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4654,31 +4708,31 @@
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>5</v>
@@ -4689,13 +4743,13 @@
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -4724,13 +4778,13 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -4759,13 +4813,13 @@
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -4794,19 +4848,19 @@
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -4818,7 +4872,7 @@
         <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>5</v>
@@ -4829,13 +4883,13 @@
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
@@ -4880,15 +4934,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25" customWidth="1"/>
+    <col min="5" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -4989,7 +5043,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5031,13 +5085,13 @@
         <v>43067</v>
       </c>
       <c r="I8" s="5">
-        <v>43044</v>
-      </c>
-      <c r="J8" s="3" t="s">
+        <v>43074</v>
+      </c>
+      <c r="J8" s="5">
+        <v>43081</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5045,31 +5099,31 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>5</v>
@@ -5080,31 +5134,31 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>5</v>
@@ -5115,32 +5169,32 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>"+?"</f>
         <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>5</v>
@@ -5151,13 +5205,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -5186,31 +5240,31 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>5</v>
@@ -5221,28 +5275,28 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
@@ -5256,31 +5310,31 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>5</v>
@@ -5291,13 +5345,13 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -5306,16 +5360,16 @@
         <v>5</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>5</v>
@@ -5326,13 +5380,13 @@
         <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -5361,13 +5415,13 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -5396,31 +5450,31 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>5</v>
@@ -5431,31 +5485,31 @@
         <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
@@ -5466,31 +5520,31 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>5</v>
@@ -5501,31 +5555,31 @@
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>5</v>
@@ -5536,31 +5590,31 @@
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>5</v>
@@ -5571,31 +5625,31 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>5</v>
@@ -5606,13 +5660,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -5641,31 +5695,31 @@
         <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>5</v>
@@ -5676,31 +5730,31 @@
         <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>5</v>
@@ -5711,19 +5765,19 @@
         <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -5732,10 +5786,10 @@
         <v>5</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>5</v>
@@ -5746,31 +5800,31 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>5</v>
@@ -5781,13 +5835,13 @@
         <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -5814,22 +5868,22 @@
         <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -5849,25 +5903,25 @@
         <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>5</v>
@@ -5884,16 +5938,16 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
@@ -5905,7 +5959,7 @@
         <v>5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -352,6 +352,31 @@
           </rPr>
           <t xml:space="preserve">
 Самый минимум
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
 </t>
         </r>
       </text>
@@ -3921,8 +3946,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4407,22 +4432,22 @@
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4527,7 +4552,7 @@
         <v>64</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4562,7 +4587,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4934,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -724,6 +724,31 @@
           </rPr>
           <t>stas
 Чужщй IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+IP не назначены
+Порты не отключены</t>
         </r>
       </text>
     </comment>
@@ -3946,7 +3971,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -4959,8 +4984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5379,10 +5404,10 @@
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>64</v>
@@ -5589,7 +5614,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>64</v>
@@ -5975,19 +6000,19 @@
         <v>64</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -74,6 +74,79 @@
         </r>
       </text>
     </comment>
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Только 1 VLAN
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не везде default gateway</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяийский IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E18" authorId="0">
       <text>
         <r>
@@ -1117,7 +1190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="186">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -2740,15 +2813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="5" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -2896,8 +2968,8 @@
       <c r="J8" s="5">
         <v>43077</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>9</v>
+      <c r="K8" s="5">
+        <v>43084</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,7 +3004,7 @@
         <v>64</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,7 +3144,7 @@
         <v>64</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3098,16 +3170,16 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3424,7 @@
         <v>64</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,7 +3459,7 @@
         <v>64</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3457,7 +3529,7 @@
         <v>64</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3489,9 +3561,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -3630,7 +3700,7 @@
         <v>5</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3735,7 +3805,7 @@
         <v>64</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3770,7 +3840,7 @@
         <v>64</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,7 +3945,7 @@
         <v>64</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,7 +3980,7 @@
         <v>64</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4984,7 +5054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -330,6 +330,87 @@
     <author>stas</author>
   </authors>
   <commentList>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Забыла перебить IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Забыла перебить IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G10" authorId="0">
       <text>
         <r>
@@ -500,6 +581,32 @@
           </rPr>
           <t xml:space="preserve">
 Вообще нет default gateway</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP</t>
         </r>
       </text>
     </comment>
@@ -874,6 +981,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="K19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Опечатка в Default gateway</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E21" authorId="0">
       <text>
         <r>
@@ -1011,6 +1144,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+2 из 3</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E27" authorId="0">
       <text>
         <r>
@@ -1060,6 +1219,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Неправильный IP на одном интерфейсе</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F31" authorId="0">
       <text>
         <r>
@@ -1157,6 +1340,30 @@
           <t xml:space="preserve">
 Мелкие ошибки
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K32" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP</t>
         </r>
       </text>
     </comment>
@@ -1190,7 +1397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="186">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -1291,9 +1498,6 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Общий балл с учетом коэффициента 1.0</t>
-  </si>
-  <si>
     <t>Шокирова М.Х.</t>
   </si>
   <si>
@@ -1861,12 +2065,15 @@
   <si>
     <t>Telnet</t>
   </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2081,6 +2288,21 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2439,7 +2661,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2469,6 +2691,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2813,7 +3036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -2921,7 +3144,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -2977,34 +3200,34 @@
         <v>60</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3012,13 +3235,13 @@
         <v>61</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
@@ -3047,13 +3270,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>5</v>
@@ -3082,13 +3305,13 @@
         <v>63</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -3117,34 +3340,34 @@
         <v>64</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3152,13 +3375,13 @@
         <v>65</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>5</v>
@@ -3170,16 +3393,16 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3187,13 +3410,13 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>5</v>
@@ -3222,13 +3445,13 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -3257,13 +3480,13 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -3292,31 +3515,31 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>5</v>
@@ -3327,13 +3550,13 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
@@ -3362,31 +3585,31 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>140</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
@@ -3397,13 +3620,13 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>5</v>
@@ -3421,10 +3644,10 @@
         <v>5</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3432,34 +3655,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,19 +3690,19 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>5</v>
@@ -3502,34 +3725,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3537,13 +3760,13 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -3568,13 +3791,13 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -3603,13 +3826,13 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>5</v>
@@ -3638,13 +3861,13 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>5</v>
@@ -3673,34 +3896,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,13 +3931,13 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -3743,25 +3966,25 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>5</v>
@@ -3778,34 +4001,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3813,34 +4036,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3848,13 +4071,13 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>5</v>
@@ -3883,13 +4106,13 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="D35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>5</v>
@@ -3918,34 +4141,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3953,34 +4176,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>174</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3988,13 +4211,13 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>5</v>
@@ -4042,16 +4265,16 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4061,10 +4284,10 @@
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
@@ -4074,7 +4297,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -4084,7 +4307,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
@@ -4094,7 +4317,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
@@ -4104,32 +4327,35 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" t="s">
         <v>183</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>184</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" t="s">
         <v>185</v>
       </c>
-      <c r="H7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" t="s">
-        <v>180</v>
-      </c>
-      <c r="J7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -4161,69 +4387,75 @@
       <c r="K8" s="5">
         <v>43082</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="5">
+        <v>43089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>5</v>
@@ -4231,34 +4463,37 @@
       <c r="K10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>5</v>
@@ -4266,19 +4501,20 @@
       <c r="K11" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -4299,19 +4535,20 @@
       <c r="K12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>5</v>
@@ -4323,33 +4560,34 @@
         <v>5</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>5</v>
@@ -4358,100 +4596,109 @@
         <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -4474,28 +4721,29 @@
       <c r="K17" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>5</v>
@@ -4509,194 +4757,204 @@
       <c r="K18" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>31</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>34</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>35</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>36</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>5</v>
@@ -4717,31 +4975,32 @@
       <c r="K24" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>37</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>5</v>
@@ -4752,19 +5011,20 @@
       <c r="K25" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>38</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>5</v>
@@ -4787,89 +5047,94 @@
       <c r="K26" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>39</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>40</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>41</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>5</v>
@@ -4892,19 +5157,20 @@
       <c r="K29" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -4927,19 +5193,20 @@
       <c r="K30" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>43</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>5</v>
@@ -4962,25 +5229,26 @@
       <c r="K31" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>44</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>5</v>
@@ -4992,25 +5260,28 @@
         <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="E33" s="4" t="s">
         <v>5</v>
       </c>
@@ -5032,6 +5303,7 @@
       <c r="K33" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="L33" s="11"/>
     </row>
     <row r="50" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O50" s="2"/>
@@ -5054,15 +5326,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="5" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -5163,7 +5434,7 @@
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -5210,8 +5481,8 @@
       <c r="J8" s="5">
         <v>43081</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>9</v>
+      <c r="K8" s="5">
+        <v>43088</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5219,31 +5490,31 @@
         <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>5</v>
@@ -5254,34 +5525,34 @@
         <v>101</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5289,35 +5560,35 @@
         <v>102</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>"+?"</f>
         <v>+?</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5325,13 +5596,13 @@
         <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>5</v>
@@ -5360,34 +5631,34 @@
         <v>104</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5395,34 +5666,34 @@
         <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5430,34 +5701,34 @@
         <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5465,34 +5736,34 @@
         <v>107</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5500,13 +5771,13 @@
         <v>108</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>5</v>
@@ -5535,13 +5806,13 @@
         <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>5</v>
@@ -5570,34 +5841,34 @@
         <v>110</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5605,34 +5876,34 @@
         <v>111</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5640,34 +5911,34 @@
         <v>112</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5675,34 +5946,34 @@
         <v>113</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="D22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5710,34 +5981,34 @@
         <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,34 +6016,34 @@
         <v>115</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5780,13 +6051,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D25" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>5</v>
@@ -5815,34 +6086,34 @@
         <v>117</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5850,34 +6121,34 @@
         <v>118</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5885,19 +6156,19 @@
         <v>119</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>5</v>
@@ -5906,13 +6177,13 @@
         <v>5</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5920,34 +6191,34 @@
         <v>120</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5955,13 +6226,13 @@
         <v>121</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="D30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>5</v>
@@ -5988,22 +6259,22 @@
         <v>122</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>5</v>
@@ -6023,34 +6294,34 @@
         <v>123</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6058,34 +6329,34 @@
         <v>124</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -792,6 +792,30 @@
           <t xml:space="preserve">
 Один IP - чужой
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Не сделан trunk</t>
         </r>
       </text>
     </comment>
@@ -2679,6 +2703,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2691,7 +2716,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3110,57 +3134,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4275,57 +4299,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
@@ -4463,7 +4487,7 @@
       <c r="K10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4501,7 +4525,7 @@
       <c r="K11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="11"/>
+      <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -4535,7 +4559,7 @@
       <c r="K12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -4571,7 +4595,7 @@
       <c r="K13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L13" s="11"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4607,7 +4631,7 @@
       <c r="K14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4645,7 +4669,7 @@
       <c r="K15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4683,7 +4707,7 @@
       <c r="K16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4721,7 +4745,7 @@
       <c r="K17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="11"/>
+      <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -4757,7 +4781,7 @@
       <c r="K18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="11"/>
+      <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -4793,7 +4817,7 @@
       <c r="K19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L19" s="11"/>
+      <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4829,7 +4853,7 @@
       <c r="K20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="11"/>
+      <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4865,7 +4889,7 @@
       <c r="K21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="7" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4903,7 +4927,7 @@
       <c r="K22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L22" s="11"/>
+      <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4939,7 +4963,7 @@
       <c r="K23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4975,7 +4999,7 @@
       <c r="K24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L24" s="11"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -5011,7 +5035,7 @@
       <c r="K25" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="11"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5047,7 +5071,7 @@
       <c r="K26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="11"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -5083,7 +5107,7 @@
       <c r="K27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="11"/>
+      <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -5119,7 +5143,7 @@
       <c r="K28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5157,7 +5181,7 @@
       <c r="K29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="11"/>
+      <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -5193,7 +5217,7 @@
       <c r="K30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="11"/>
+      <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -5229,7 +5253,7 @@
       <c r="K31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L31" s="11"/>
+      <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -5265,7 +5289,7 @@
       <c r="K32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -5303,7 +5327,7 @@
       <c r="K33" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L33" s="11"/>
+      <c r="L33" s="7"/>
     </row>
     <row r="50" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O50" s="2"/>
@@ -5327,7 +5351,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5400,57 +5424,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5508,7 +5532,7 @@
         <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>63</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -461,6 +461,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+неверные IP маршрутизаторов</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I11" authorId="0">
       <text>
         <r>
@@ -482,6 +506,30 @@
           </rPr>
           <t xml:space="preserve">
 IP неуникальны</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+неверные IP маршрутизаторов</t>
         </r>
       </text>
     </comment>
@@ -707,6 +755,54 @@
           <t xml:space="preserve">
 Хозяйский IP
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Хозяйский IP</t>
         </r>
       </text>
     </comment>
@@ -1421,7 +1517,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="186">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -3060,14 +3156,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
-    <col min="5" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="258" max="267" width="25" customWidth="1"/>
     <col min="514" max="523" width="25" customWidth="1"/>
     <col min="770" max="779" width="25" customWidth="1"/>
@@ -3133,7 +3229,7 @@
     <col min="16130" max="16139" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3143,10 +3239,10 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
@@ -3156,7 +3252,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -3166,7 +3262,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>115</v>
       </c>
@@ -3176,7 +3272,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
@@ -3186,8 +3282,8 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3218,8 +3314,11 @@
       <c r="K8" s="5">
         <v>43084</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="5">
+        <v>43091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>60</v>
       </c>
@@ -3253,8 +3352,11 @@
       <c r="K9" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>61</v>
       </c>
@@ -3288,8 +3390,9 @@
       <c r="K10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>62</v>
       </c>
@@ -3323,8 +3426,9 @@
       <c r="K11" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>63</v>
       </c>
@@ -3358,8 +3462,9 @@
       <c r="K12" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>64</v>
       </c>
@@ -3393,8 +3498,11 @@
       <c r="K13" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>65</v>
       </c>
@@ -3428,8 +3536,11 @@
       <c r="K14" s="4" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>66</v>
       </c>
@@ -3463,8 +3574,9 @@
       <c r="K15" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>67</v>
       </c>
@@ -3498,8 +3610,9 @@
       <c r="K16" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>68</v>
       </c>
@@ -3533,8 +3646,9 @@
       <c r="K17" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>69</v>
       </c>
@@ -3568,8 +3682,11 @@
       <c r="K18" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>70</v>
       </c>
@@ -3603,8 +3720,9 @@
       <c r="K19" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>71</v>
       </c>
@@ -3638,8 +3756,11 @@
       <c r="K20" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>72</v>
       </c>
@@ -3673,8 +3794,9 @@
       <c r="K21" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>73</v>
       </c>
@@ -3700,7 +3822,7 @@
         <v>63</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>63</v>
@@ -3708,8 +3830,11 @@
       <c r="K22" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>74</v>
       </c>
@@ -3743,8 +3868,9 @@
       <c r="K23" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>75</v>
       </c>
@@ -3778,8 +3904,11 @@
       <c r="K24" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>76</v>
       </c>
@@ -3809,8 +3938,9 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>77</v>
       </c>
@@ -3844,8 +3974,9 @@
       <c r="K26" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>78</v>
       </c>
@@ -3879,8 +4010,9 @@
       <c r="K27" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>79</v>
       </c>
@@ -3914,8 +4046,9 @@
       <c r="K28" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>80</v>
       </c>
@@ -3949,8 +4082,11 @@
       <c r="K29" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>81</v>
       </c>
@@ -3984,8 +4120,9 @@
       <c r="K30" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>82</v>
       </c>
@@ -4019,8 +4156,11 @@
       <c r="K31" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>83</v>
       </c>
@@ -4054,8 +4194,11 @@
       <c r="K32" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>84</v>
       </c>
@@ -4089,8 +4232,11 @@
       <c r="K33" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>85</v>
       </c>
@@ -4124,8 +4270,9 @@
       <c r="K34" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>86</v>
       </c>
@@ -4159,8 +4306,9 @@
       <c r="K35" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>87</v>
       </c>
@@ -4194,8 +4342,11 @@
       <c r="K36" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>88</v>
       </c>
@@ -4229,8 +4380,11 @@
       <c r="K37" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>89</v>
       </c>
@@ -4264,6 +4418,7 @@
       <c r="K38" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="L38" s="4"/>
     </row>
     <row r="55" spans="15:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O55" s="2"/>
@@ -4289,7 +4444,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4482,7 +4637,7 @@
         <v>176</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>5</v>
@@ -4520,7 +4675,7 @@
         <v>176</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>5</v>
@@ -4575,7 +4730,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>5</v>
@@ -4853,7 +5008,9 @@
       <c r="K20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -5033,9 +5190,11 @@
         <v>5</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L25" s="7"/>
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -5107,7 +5266,9 @@
       <c r="K27" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -5350,7 +5511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -357,6 +357,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Нет конечных устройств
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I9" authorId="0">
       <text>
         <r>
@@ -629,6 +654,30 @@
           </rPr>
           <t xml:space="preserve">
 Вообще нет default gateway</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
         </r>
       </text>
     </comment>
@@ -3156,7 +3205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -4443,8 +4492,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,7 +4639,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>63</v>
@@ -5041,7 +5090,7 @@
         <v>63</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>63</v>
@@ -5184,7 +5233,7 @@
         <v>63</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>5</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -779,6 +779,30 @@
           <t xml:space="preserve">
 Самый минимум, ничего не работает
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
         </r>
       </text>
     </comment>
@@ -4493,7 +4517,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5224,7 +5248,7 @@
         <v>176</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>63</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -194,6 +194,30 @@
           <t xml:space="preserve">
 Нужны разные IP в разных подсетях
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Фантастические Default gateway</t>
         </r>
       </text>
     </comment>
@@ -3229,8 +3253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3777,7 @@
         <v>63</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>63</v>
@@ -4516,7 +4540,7 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -657,6 +657,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I21" authorId="0">
       <text>
         <r>
@@ -852,6 +876,30 @@
           <t xml:space="preserve">
 Хозяйский IP
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
         </r>
       </text>
     </comment>
@@ -3253,7 +3301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
@@ -4540,8 +4588,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,7 +5174,7 @@
         <v>176</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>63</v>
@@ -5284,7 +5332,7 @@
         <v>63</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>176</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -607,6 +607,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I19" authorId="0">
       <text>
         <r>
@@ -629,6 +653,30 @@
           <t xml:space="preserve">
 Чужой IP
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP</t>
         </r>
       </text>
     </comment>
@@ -4589,7 +4637,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +5015,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>63</v>
@@ -5151,7 +5199,7 @@
         <v>63</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>63</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4637,7 +4637,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4962,10 +4962,10 @@
         <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>63</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23955" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="263929" sheetId="3" r:id="rId1"/>
@@ -628,6 +628,56 @@
           </rPr>
           <t xml:space="preserve">
 Чужой IP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Чужой IP
+</t>
         </r>
       </text>
     </comment>
@@ -3349,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,16 +3685,16 @@
         <v>14</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>5</v>
@@ -4344,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>5</v>
@@ -4636,8 +4686,8 @@
   </sheetPr>
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5124,10 +5174,10 @@
         <v>5</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="L18" s="7"/>
     </row>
@@ -5566,7 +5616,7 @@
         <v>5</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>5</v>
@@ -5705,7 +5755,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6030,7 +6080,7 @@
         <v>63</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>63</v>

--- a/register/2017.xlsx
+++ b/register/2017.xlsx
@@ -344,6 +344,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>stas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ Опечатка в IP</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -1760,7 +1784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="187">
   <si>
     <t>Текущая аттестация 1.0</t>
   </si>
@@ -2430,6 +2454,9 @@
   </si>
   <si>
     <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -3399,8 +3426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3697,7 +3724,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>5</v>
@@ -4091,25 +4118,25 @@
         <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="L23" s="4"/>
     </row>
@@ -4391,7 +4418,7 @@
         <v>63</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>63</v>
